--- a/medicine/Enfance/Claude_Voilier/Claude_Voilier.xlsx
+++ b/medicine/Enfance/Claude_Voilier/Claude_Voilier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Voilier, née Andrée Labedan le 9 novembre 1917 à Saint-Gaudens (Haute-Garonne) et morte le 22 mai 2009 à La Teste-de-Buch (Gironde)[1],[2], est une journaliste, romancière et traductrice française, principalement connue pour avoir écrit de nouveaux titres à la célèbre série littéraire pour la jeunesse Le Club des cinq d'Enid Blyton.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Voilier, née Andrée Labedan le 9 novembre 1917 à Saint-Gaudens (Haute-Garonne) et morte le 22 mai 2009 à La Teste-de-Buch (Gironde) est une journaliste, romancière et traductrice française, principalement connue pour avoir écrit de nouveaux titres à la célèbre série littéraire pour la jeunesse Le Club des cinq d'Enid Blyton.
 </t>
         </is>
       </c>
@@ -511,15 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Voilier fait des études de lettres et d'anglais puis enseigne les lettres à Blida, à Saint-Gaudens et à Paris. Elle est journaliste dans des quotidiens (L'Aurore, L'Époque, Télésoir) et des hebdomadaires (Ici Paris, Point de vue, Noir et blanc).
 Elle écrit des poèmes (Feuilles au vent, Jardin secret), des romans, des feuilletons.
 Elle écrira plus de huit cents nouvelles pour magazines ou hebdomadaires, et quatre cents contes et nouvelles pour enfants.
-Série Les Cinq
-Après le décès en 1968 d'Enid Blyton, la créatrice de la série Le Club des cinq, Claude Voilier reprend la série en 1971. Elle écrira vingt-quatre titres qui seront édités sous le nom de Les Cinq dans la collection Bibliothèque rose des éditions Hachette. Cette seconde série sera également publiée au Royaume-Uni.
-Traduction
-Claude Voilier a notamment traduit plusieurs titres de séries parues dans la collection Bibliothèque verte : Une enquête des sœurs Parker de Caroline Quine et Les Trois Jeunes Détectives d'Alfred Hitchcock. Elle a retraduit des volumes de la série Alice de Caroline Quine (Bibliothèque verte).
 </t>
         </is>
       </c>
@@ -545,15 +555,133 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Les Cinq</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le décès en 1968 d'Enid Blyton, la créatrice de la série Le Club des cinq, Claude Voilier reprend la série en 1971. Elle écrira vingt-quatre titres qui seront édités sous le nom de Les Cinq dans la collection Bibliothèque rose des éditions Hachette. Cette seconde série sera également publiée au Royaume-Uni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Voilier a notamment traduit plusieurs titres de séries parues dans la collection Bibliothèque verte : Une enquête des sœurs Parker de Caroline Quine et Les Trois Jeunes Détectives d'Alfred Hitchcock. Elle a retraduit des volumes de la série Alice de Caroline Quine (Bibliothèque verte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans écrits par C. Voilier
-Note : la date est celle de la première édition.
-Série Les Cinq
-La présentation diffère de la série originelle Le Club des Cinq en cela qu'elle comporte une page de texte pur et, en vis-à-vis, une page de bande-dessinée. Cette présentation disparaîtra des dernières éditions.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans écrits par C. Voilier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : la date est celle de la première édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans écrits par C. Voilier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les Cinq</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La présentation diffère de la série originelle Le Club des Cinq en cela qu'elle comporte une page de texte pur et, en vis-à-vis, une page de bande-dessinée. Cette présentation disparaîtra des dernières éditions.
 1971 : Les Cinq sont les plus forts (illustré par Jean Sidobre)
 1971 : Les Cinq au Bal des espions (illustré par Jean Sidobre)
 1972 : Le Marquis appelle les Cinq (illustré par Jean Sidobre)
@@ -577,13 +705,125 @@
 1981 : Les Cinq contre les fantômes (illustré par Buci)
 1983 : Les Cinq en Amazonie (illustré par : Inconnu)
 1984 : Les Cinq et le trésor du pirate (illustré par : Inconnu)
-1985 : Les Cinq contre le loup-garou (illustré par : Annie-Claude Martin)
-Autres romans
-1962 : Celle qu'on retrouvaIllustrations de Jean Reschofsky ; Hachette, collection Idéal-Bibliothèque no 232.
-1964 : Le Manoir des Cinq PreuxIllustrations de Jacques Fromont ; Hachette, collection Idéal-Bibliothèqueno 260.
-Traduction
-Note : la date est celle de la première édition traduite par Claude Voilier.
-Série Une enquête des sœurs Parker
+1985 : Les Cinq contre le loup-garou (illustré par : Annie-Claude Martin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans écrits par C. Voilier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1962 : Celle qu'on retrouvaIllustrations de Jean Reschofsky ; Hachette, collection Idéal-Bibliothèque no 232.
+1964 : Le Manoir des Cinq PreuxIllustrations de Jacques Fromont ; Hachette, collection Idéal-Bibliothèqueno 260.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : la date est celle de la première édition traduite par Claude Voilier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Une enquête des sœurs Parker</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1966 : Les Sœurs Parker et les Ravisseurs
 1978 : Dans l’ombre de la tour
 1971 : Sur les traces de l’homme masqué
@@ -605,8 +845,47 @@
 1973 : La Guitare ensorcelée
 1975 : Le Beau Garçon du Pacifique
 1980 : Le Volcan endormi
-Série Alice
-Série Les Trois Jeunes Détectives
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Voilier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les Trois Jeunes Détectives</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1971 : Treize bustes pour Auguste
 1972 : Une araignée appelée à régner
 1973 : Le Trombone du diable
